--- a/2-heroin/h.xlsx
+++ b/2-heroin/h.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="660" activeTab="3"/>
+    <workbookView xWindow="24220" yWindow="0" windowWidth="14100" windowHeight="21140" tabRatio="660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
     <sheet name="HeroinOverdoses" sheetId="4" r:id="rId2"/>
     <sheet name="US_HeroinPast30Days" sheetId="1" r:id="rId3"/>
     <sheet name="USHeroinAge" sheetId="2" r:id="rId4"/>
-    <sheet name="EconomicCost" sheetId="6" r:id="rId5"/>
-    <sheet name="HepC" sheetId="7" r:id="rId6"/>
+    <sheet name="ChronicUsers" sheetId="7" r:id="rId5"/>
+    <sheet name="EconomicCost" sheetId="6" r:id="rId6"/>
     <sheet name="Prevalence" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="556">
   <si>
     <t>RACE</t>
   </si>
@@ -2642,6 +2642,12 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Chronic</t>
+  </si>
+  <si>
+    <t>Occasional</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3061,8 +3067,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3079,7 +3111,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3151,8 +3182,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="134">
     <cellStyle name="Comma 2" xfId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3206,6 +3244,19 @@
     <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3258,6 +3309,19 @@
     <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
     <cellStyle name="Percent" xfId="83" builtinId="5"/>
@@ -3663,10 +3727,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3674,7 +3738,7 @@
     <col min="1" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -3685,169 +3749,289 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12">
-        <v>36161</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="45">
+        <v>1999</v>
       </c>
       <c r="B2" s="10">
-        <v>306</v>
-      </c>
-      <c r="C2" s="10">
+        <v>-306</v>
+      </c>
+      <c r="C2" s="8">
         <v>1654</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12">
-        <v>36526</v>
+      <c r="E2" s="8">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F16" si="0">-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="45">
+        <v>2000</v>
       </c>
       <c r="B3" s="10">
-        <v>279</v>
-      </c>
-      <c r="C3" s="10">
+        <v>-279</v>
+      </c>
+      <c r="C3" s="8">
         <v>1563</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12">
-        <v>36892</v>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:F16" si="1">-1</f>
+        <v>-1</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45">
+        <v>2001</v>
       </c>
       <c r="B4" s="10">
-        <v>313</v>
-      </c>
-      <c r="C4" s="10">
+        <v>-313</v>
+      </c>
+      <c r="C4" s="8">
         <v>1466</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12">
-        <v>37257</v>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45">
+        <v>2002</v>
       </c>
       <c r="B5" s="10">
-        <v>359</v>
-      </c>
-      <c r="C5" s="10">
+        <v>-359</v>
+      </c>
+      <c r="C5" s="8">
         <v>1730</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12">
-        <v>37622</v>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45">
+        <v>2003</v>
       </c>
       <c r="B6" s="10">
-        <v>358</v>
-      </c>
-      <c r="C6" s="10">
+        <v>-358</v>
+      </c>
+      <c r="C6" s="8">
         <v>1722</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12">
-        <v>37987</v>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45">
+        <v>2004</v>
       </c>
       <c r="B7" s="10">
-        <v>341</v>
-      </c>
-      <c r="C7" s="10">
+        <v>-341</v>
+      </c>
+      <c r="C7" s="8">
         <v>1537</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12">
-        <v>38353</v>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45">
+        <v>2005</v>
       </c>
       <c r="B8" s="10">
-        <v>389</v>
-      </c>
-      <c r="C8" s="10">
+        <v>-389</v>
+      </c>
+      <c r="C8" s="8">
         <v>1620</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12">
-        <v>38718</v>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="45">
+        <v>2006</v>
       </c>
       <c r="B9" s="10">
-        <v>344</v>
-      </c>
-      <c r="C9" s="10">
+        <v>-344</v>
+      </c>
+      <c r="C9" s="8">
         <v>1744</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12">
-        <v>39083</v>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="45">
+        <v>2007</v>
       </c>
       <c r="B10" s="10">
-        <v>399</v>
-      </c>
-      <c r="C10" s="10">
+        <v>-399</v>
+      </c>
+      <c r="C10" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12">
-        <v>39448</v>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45">
+        <v>2008</v>
       </c>
       <c r="B11" s="10">
-        <v>551</v>
-      </c>
-      <c r="C11" s="10">
+        <v>-551</v>
+      </c>
+      <c r="C11" s="8">
         <v>2490</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12">
-        <v>39814</v>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="45">
+        <v>2009</v>
       </c>
       <c r="B12" s="10">
-        <v>577</v>
-      </c>
-      <c r="C12" s="10">
+        <v>-577</v>
+      </c>
+      <c r="C12" s="8">
         <v>2701</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12">
-        <v>40179</v>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="45">
+        <v>2010</v>
       </c>
       <c r="B13" s="10">
-        <v>584</v>
-      </c>
-      <c r="C13" s="10">
+        <v>-584</v>
+      </c>
+      <c r="C13" s="8">
         <v>2452</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12">
-        <v>40544</v>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="45">
+        <v>2011</v>
       </c>
       <c r="B14" s="10">
-        <v>878</v>
-      </c>
-      <c r="C14" s="10">
+        <v>-878</v>
+      </c>
+      <c r="C14" s="8">
         <v>3519</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12">
-        <v>40909</v>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="45">
+        <v>2012</v>
       </c>
       <c r="B15" s="10">
-        <v>1213</v>
-      </c>
-      <c r="C15" s="10">
+        <v>-1213</v>
+      </c>
+      <c r="C15" s="8">
         <v>4712</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12">
-        <v>41275</v>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45">
+        <v>2013</v>
       </c>
       <c r="B16" s="10">
-        <v>1732</v>
-      </c>
-      <c r="C16" s="10">
+        <v>-1732</v>
+      </c>
+      <c r="C16" s="8">
         <v>6525</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3863,10 +4047,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3894,7 +4081,7 @@
       <c r="B2" s="2">
         <v>241</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <f>B2/$B$6</f>
         <v>0.7799352750809061</v>
       </c>
@@ -3906,7 +4093,7 @@
       <c r="B3" s="2">
         <v>28</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <f t="shared" ref="C3:C5" si="0">B3/$B$6</f>
         <v>9.0614886731391592E-2</v>
       </c>
@@ -3918,7 +4105,7 @@
       <c r="B4" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <f t="shared" si="0"/>
         <v>2.9126213592233011E-2</v>
       </c>
@@ -3930,7 +4117,7 @@
       <c r="B5" s="2">
         <v>31</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <f t="shared" si="0"/>
         <v>0.10032362459546926</v>
       </c>
@@ -3943,7 +4130,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3963,10 +4150,10 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>169792</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <f>B9/$B$13</f>
         <v>0.64998621872416007</v>
       </c>
@@ -3975,10 +4162,10 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>30901</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <f t="shared" ref="C10:C12" si="1">B10/$B$13</f>
         <v>0.1182931124245858</v>
       </c>
@@ -3987,10 +4174,10 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>19751</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <f t="shared" si="1"/>
         <v>7.5609438642697452E-2</v>
       </c>
@@ -3999,10 +4186,10 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>40780</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <f t="shared" si="1"/>
         <v>0.15611123020855663</v>
       </c>
@@ -4018,25 +4205,25 @@
     </row>
     <row r="14" spans="1:8" hidden="1"/>
     <row r="15" spans="1:8">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>447</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -4044,246 +4231,246 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>453</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>77</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>106</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>114</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>153</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>150</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <v>241</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="38" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>30</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>13</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>47</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>26</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>73</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>28</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="37">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="38" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>9</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>1</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>6</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <v>4</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>8</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <v>9</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="38" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="37">
         <v>25</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>29</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>85</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>13</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>37</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="40">
         <v>31</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>220</v>
       </c>
     </row>
@@ -4291,72 +4478,72 @@
       <c r="A26" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <v>139</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>150</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>253</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <v>197</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>268</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <v>308</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <v>1315</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>447</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -4364,246 +4551,246 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="40" t="s">
         <v>453</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="38" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="39">
         <v>165825</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="39">
         <v>167421</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="39">
         <v>168610</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="39">
         <v>169604</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>169593</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="42">
         <v>169792</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <v>1010844</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="39">
         <v>27019</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="39">
         <v>27966</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <v>28671</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="39">
         <v>29441</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>30083</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="42">
         <v>30901</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <v>174082</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="38" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="39">
         <v>14089</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="39">
         <v>14899</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="39">
         <v>15816</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="39">
         <v>16267</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>17847</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="42">
         <v>19751</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="39">
         <v>98669</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <v>29481</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="39">
         <v>31581</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>33836</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="39">
         <v>35503</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>38085</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="42">
         <v>40780</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="39">
         <v>209267</v>
       </c>
     </row>
@@ -4611,49 +4798,49 @@
       <c r="A40" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
-      <c r="B41" s="40">
+      <c r="B41" s="39">
         <v>236413</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>241868</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>246933</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="39">
         <v>250815</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="39">
         <v>255609</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="42">
         <v>261224</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="39">
         <v>1492862</v>
       </c>
     </row>
@@ -4670,9 +4857,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF008000"/>
+  </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -4799,25 +4989,25 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -4825,194 +5015,194 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>453</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <v>56251</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>57625</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>58052</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <v>58010</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>58847</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="42">
         <v>59601</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <v>348385</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="39">
         <v>122940</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <v>123507</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>125292</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="39">
         <v>125231</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>124803</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="42">
         <v>125853</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <v>747626</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="39">
         <v>57222</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <v>60736</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
         <v>63589</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <v>67575</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>71959</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>75770</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <v>396852</v>
       </c>
     </row>
@@ -5020,72 +5210,72 @@
       <c r="A23" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1"/>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>236413</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <v>241868</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <v>246933</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="39">
         <v>250815</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>255609</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="42">
         <v>261224</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <v>1492862</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>447</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -5093,194 +5283,194 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>453</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="38" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="37">
         <v>47</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="37">
         <v>64</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>59</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <v>86</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>111</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <v>120</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="38" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>92</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <v>86</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>160</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>93</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>145</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <v>176</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="38" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>0</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>0</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>34</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>18</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>12</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <v>13</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>77</v>
       </c>
     </row>
@@ -5288,49 +5478,49 @@
       <c r="A35" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1"/>
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>139</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>150</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>253</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>197</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>268</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <v>308</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="39">
         <v>1315</v>
       </c>
     </row>
@@ -5346,6 +5536,159 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="43">
+        <v>170</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="43">
+        <v>130</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="43">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="43">
+        <v>210</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="43">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="43">
+        <v>130</v>
+      </c>
+      <c r="C5" s="43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="43">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="43">
+        <v>120</v>
+      </c>
+      <c r="C6" s="43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="43">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="43">
+        <v>180</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="43">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="43">
+        <v>380</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="43">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="43">
+        <v>150</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="43">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="43">
+        <v>240</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="43">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="43">
+        <v>340</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="43">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="43">
+        <v>330</v>
+      </c>
+      <c r="C12" s="43">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5380,17 +5723,17 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <f>SUM(C2:E2)</f>
         <v>137915</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>13719</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>24909</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>99287</v>
       </c>
     </row>
@@ -5398,17 +5741,17 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f t="shared" ref="B3:B12" si="0">SUM(C3:E3)</f>
         <v>138086</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>14736</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>24662</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>98688</v>
       </c>
     </row>
@@ -5416,17 +5759,17 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>142468</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>14761</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>25892</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>101815</v>
       </c>
     </row>
@@ -5434,17 +5777,17 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>147479</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>14087</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>28091</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>105301</v>
       </c>
     </row>
@@ -5452,17 +5795,17 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>148706</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>13249</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>28325</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>107132</v>
       </c>
     </row>
@@ -5470,17 +5813,17 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>150235</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>13337</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>29905</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>106993</v>
       </c>
     </row>
@@ -5488,17 +5831,17 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>154456</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>13569</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>31334</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>109553</v>
       </c>
     </row>
@@ -5506,17 +5849,17 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>163311</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>13873</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>33572</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>115866</v>
       </c>
     </row>
@@ -5524,17 +5867,17 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>167746</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>13974</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>35280</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>118492</v>
       </c>
     </row>
@@ -5542,17 +5885,17 @@
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>171715</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>14700</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>35118</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>121897</v>
       </c>
     </row>
@@ -5560,17 +5903,17 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>180601</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>15675</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>36363</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>128563</v>
       </c>
     </row>
@@ -5585,27 +5928,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF660066"/>
+  </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5627,64 +5954,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>0.21</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>0.04</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>0.52</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="34" t="str">
+      <c r="H2" s="33" t="str">
         <f>"'"</f>
         <v>'</v>
       </c>
@@ -5704,24 +6031,24 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1.29</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="34" t="str">
+      <c r="H3" s="33" t="str">
         <f t="shared" ref="H3:H66" si="0">"'"</f>
         <v>'</v>
       </c>
@@ -5741,24 +6068,24 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="34" t="str">
+      <c r="H4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5778,24 +6105,24 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="34" t="str">
+      <c r="H5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5815,24 +6142,24 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>0.16</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="34" t="str">
+      <c r="H6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5852,24 +6179,24 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>0.05</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="34" t="str">
+      <c r="H7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5889,28 +6216,28 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0.06</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.05</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>0.06</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="34" t="str">
+      <c r="H8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5930,28 +6257,28 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>0.44</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>0.73</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="34" t="str">
+      <c r="H9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -5971,24 +6298,24 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="34" t="str">
+      <c r="H10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6008,24 +6335,24 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>0.08</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="34" t="str">
+      <c r="H11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6045,24 +6372,24 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>0.12</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="34" t="str">
+      <c r="H12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6082,24 +6409,24 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.5</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="34" t="str">
+      <c r="H13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6119,24 +6446,24 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>0.17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="34" t="str">
+      <c r="H14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6156,24 +6483,24 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>0.37</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="34" t="str">
+      <c r="H15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6193,24 +6520,24 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>0.04</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="34" t="str">
+      <c r="H16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6230,24 +6557,24 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.05</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="34" t="str">
+      <c r="H17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6267,24 +6594,24 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>0.22</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="34" t="str">
+      <c r="H18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6304,24 +6631,24 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>0.18</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="34" t="str">
+      <c r="H19" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6341,24 +6668,24 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="34" t="str">
+      <c r="H20" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6378,24 +6705,24 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>0.17</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="34" t="str">
+      <c r="H21" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6415,24 +6742,24 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>0.2</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="F22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="34" t="str">
+      <c r="H22" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6452,28 +6779,28 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>0.7</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.3</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>1</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="34" t="str">
+      <c r="H23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6493,24 +6820,24 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>0.13</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="F24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="34" t="str">
+      <c r="H24" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6530,24 +6857,24 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>0.08</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="34" t="str">
+      <c r="H25" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6567,24 +6894,24 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>0.17</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="34" t="str">
+      <c r="H26" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6604,24 +6931,24 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>0.17</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="34" t="str">
+      <c r="H27" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6641,28 +6968,28 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>0.23</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.16</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="34" t="str">
+      <c r="H28" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6682,28 +7009,28 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0.15</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.1</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>0.2</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="34" t="str">
+      <c r="H29" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6723,24 +7050,24 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>0.22</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="F30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="34" t="str">
+      <c r="H30" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6760,28 +7087,28 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.05</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>0.09</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="F31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="34" t="str">
+      <c r="H31" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6801,28 +7128,28 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>0.2</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.19</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>0.22</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="34" t="str">
+      <c r="H32" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6842,28 +7169,28 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>1</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>1.5</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="23" t="s">
+      <c r="F33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="34" t="str">
+      <c r="H33" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6883,24 +7210,24 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>0.3</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="22" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="34" t="str">
+      <c r="H34" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6920,24 +7247,24 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>0.63</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="22" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="23" t="s">
+      <c r="F35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="34" t="str">
+      <c r="H35" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6957,24 +7284,24 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="23" t="s">
+      <c r="F36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="34" t="str">
+      <c r="H36" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -6994,24 +7321,24 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.04</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="22" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="34" t="str">
+      <c r="H37" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7031,24 +7358,24 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>0.15</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="22" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="F38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="34" t="str">
+      <c r="H38" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7068,24 +7395,24 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="22" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="34" t="str">
+      <c r="H39" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7105,24 +7432,24 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>0.3</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="22" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="23" t="s">
+      <c r="F40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="34" t="str">
+      <c r="H40" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7142,28 +7469,28 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>0.38</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.19</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="34" t="str">
+      <c r="H41" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7183,24 +7510,24 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>6.1</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="22" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="23" t="s">
+      <c r="F42" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="34" t="str">
+      <c r="H42" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7220,24 +7547,24 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>0.1</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="22" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="23" t="s">
+      <c r="F43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="34" t="str">
+      <c r="H43" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7257,28 +7584,28 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>0.6</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.3</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>0.9</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="34" t="str">
+      <c r="H44" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7298,28 +7625,28 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>1.45</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>1.5</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="23" t="s">
+      <c r="F45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="34" t="str">
+      <c r="H45" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7339,24 +7666,24 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="22" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="F46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="34" t="str">
+      <c r="H46" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7376,24 +7703,24 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="22" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="23" t="s">
+      <c r="F47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="34" t="str">
+      <c r="H47" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7413,28 +7740,28 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.06</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>0.08</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="34" t="str">
+      <c r="H48" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7454,24 +7781,24 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>0.03</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="22" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="34" t="str">
+      <c r="H49" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7491,24 +7818,24 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>0.18</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="22" t="s">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="34" t="str">
+      <c r="H50" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7528,33 +7855,33 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="19" t="str">
         <f>" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C51" s="20" t="str">
+      <c r="C51" s="19" t="str">
         <f t="shared" ref="C51:F51" si="3">" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D51" s="20" t="str">
+      <c r="D51" s="19" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="20" t="str">
+      <c r="E51" s="19" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F51" s="20" t="str">
+      <c r="F51" s="19" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="34" t="str">
+      <c r="H51" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7574,28 +7901,28 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>0.18</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.05</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>0.3</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="23" t="s">
+      <c r="F52" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="34" t="str">
+      <c r="H52" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7615,24 +7942,24 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>0.03</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="22" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="34" t="str">
+      <c r="H53" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7652,28 +7979,28 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>0.16</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>0.2</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="23" t="s">
+      <c r="F54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="34" t="str">
+      <c r="H54" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7693,28 +8020,28 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>1.5</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.28</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>1.72</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="23" t="s">
+      <c r="F55" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="34" t="str">
+      <c r="H55" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7734,28 +8061,28 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>1.36</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.33</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>1.4</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="23" t="s">
+      <c r="F56" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="34" t="str">
+      <c r="H56" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7775,24 +8102,24 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>1</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="22" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="23" t="s">
+      <c r="F57" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H57" s="34" t="str">
+      <c r="H57" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7812,24 +8139,24 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>0.8</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="22" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="23" t="s">
+      <c r="F58" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="34" t="str">
+      <c r="H58" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7849,24 +8176,24 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>0.54</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="22" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="23" t="s">
+      <c r="F59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="34" t="str">
+      <c r="H59" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7886,24 +8213,24 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>0.32</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="22" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="23" t="s">
+      <c r="F60" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="34" t="str">
+      <c r="H60" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7923,24 +8250,24 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>0.8</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="22" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F61" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="34" t="str">
+      <c r="H61" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7960,24 +8287,24 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>0.04</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="22" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="23" t="s">
+      <c r="F62" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="34" t="str">
+      <c r="H62" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -7997,28 +8324,28 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>0.19</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.13</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <v>0.25</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F63" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="23" t="s">
+      <c r="F63" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H63" s="34" t="str">
+      <c r="H63" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -8038,24 +8365,24 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>0.2</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="22" t="s">
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" s="23" t="s">
+      <c r="F64" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="34" t="str">
+      <c r="H64" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -8075,24 +8402,24 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>0.11</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="22" t="s">
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="23" t="s">
+      <c r="F65" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="34" t="str">
+      <c r="H65" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -8112,24 +8439,24 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>0.37</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="22" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="23" t="s">
+      <c r="F66" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H66" s="34" t="str">
+      <c r="H66" s="33" t="str">
         <f t="shared" si="0"/>
         <v>'</v>
       </c>
@@ -8149,24 +8476,24 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="22" t="s">
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="23" t="s">
+      <c r="F67" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H67" s="34" t="str">
+      <c r="H67" s="33" t="str">
         <f t="shared" ref="H67:H130" si="4">"'"</f>
         <v>'</v>
       </c>
@@ -8186,24 +8513,24 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="19">
         <v>0.94</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="22" t="s">
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="23" t="s">
+      <c r="F68" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="34" t="str">
+      <c r="H68" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8223,33 +8550,33 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="20" t="str">
+      <c r="B69" s="19" t="str">
         <f t="shared" ref="B69:F69" si="7">" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C69" s="20" t="str">
+      <c r="C69" s="19" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D69" s="20" t="str">
+      <c r="D69" s="19" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E69" s="20" t="str">
+      <c r="E69" s="19" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F69" s="20" t="str">
+      <c r="F69" s="19" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="34" t="str">
+      <c r="H69" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8269,28 +8596,28 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="19">
         <v>0.8</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>0.7</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="20">
         <v>0.9</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="23" t="s">
+      <c r="F70" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H70" s="34" t="str">
+      <c r="H70" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8310,28 +8637,28 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>0.04</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>0.03</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="20">
         <v>0.04</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" s="23" t="s">
+      <c r="F71" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="34" t="str">
+      <c r="H71" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8351,28 +8678,28 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>0.08</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>0.06</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="20">
         <v>0.1</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="23" t="s">
+      <c r="F72" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="34" t="str">
+      <c r="H72" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8392,28 +8719,28 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="19">
         <v>0.33</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="20">
         <v>0.38</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="23" t="s">
+      <c r="F73" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H73" s="34" t="str">
+      <c r="H73" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8433,24 +8760,24 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="19">
         <v>0.2</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="22" t="s">
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" s="23" t="s">
+      <c r="F74" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="34" t="str">
+      <c r="H74" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8470,33 +8797,33 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="20" t="str">
+      <c r="B75" s="19" t="str">
         <f t="shared" ref="B75:F75" si="8">" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C75" s="20" t="str">
+      <c r="C75" s="19" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D75" s="20" t="str">
+      <c r="D75" s="19" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E75" s="20" t="str">
+      <c r="E75" s="19" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F75" s="20" t="str">
+      <c r="F75" s="19" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="34" t="str">
+      <c r="H75" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8516,24 +8843,24 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="19">
         <v>0.53</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="22" t="s">
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" s="23" t="s">
+      <c r="F76" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="34" t="str">
+      <c r="H76" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8553,24 +8880,24 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="19">
         <v>0.2</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="22" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="34" t="str">
+      <c r="H77" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8590,28 +8917,28 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="19">
         <v>2.92</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>2.65</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="20">
         <v>3.2</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F78" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="H78" s="34" t="str">
+      <c r="H78" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8631,24 +8958,24 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="19">
         <v>2.27</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="22" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F79" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="23" t="s">
+      <c r="F79" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="34" t="str">
+      <c r="H79" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8668,28 +8995,28 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="19">
         <v>0.63</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>0.46</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="20">
         <v>0.8</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="34" t="str">
+      <c r="H80" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8709,24 +9036,24 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="19">
         <v>0.17</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="22" t="s">
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F81" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G81" s="23" t="s">
+      <c r="F81" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H81" s="34" t="str">
+      <c r="H81" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8746,24 +9073,24 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="19">
         <v>0.2</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="22" t="s">
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F82" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G82" s="23" t="s">
+      <c r="F82" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H82" s="34" t="str">
+      <c r="H82" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8783,33 +9110,33 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="20" t="str">
+      <c r="B83" s="19" t="str">
         <f t="shared" ref="B83:F83" si="9">" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C83" s="20" t="str">
+      <c r="C83" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D83" s="20" t="str">
+      <c r="D83" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="20" t="str">
+      <c r="E83" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F83" s="20" t="str">
+      <c r="F83" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H83" s="34" t="str">
+      <c r="H83" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8829,28 +9156,28 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>2.4</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>2</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="20">
         <v>3.1</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="F84" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H84" s="34" t="str">
+      <c r="H84" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8870,24 +9197,24 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="19">
         <v>0.06</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="22" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" s="23" t="s">
+      <c r="F85" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H85" s="34" t="str">
+      <c r="H85" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8907,24 +9234,24 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="19">
         <v>0.02</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="22" t="s">
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F86" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="23" t="s">
+      <c r="F86" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H86" s="34" t="str">
+      <c r="H86" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8944,24 +9271,24 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="19">
         <v>0.02</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="22" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="23" t="s">
+      <c r="F87" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="34" t="str">
+      <c r="H87" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -8981,24 +9308,24 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="19">
         <v>0.4</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="22" t="s">
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F88" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G88" s="23" t="s">
+      <c r="F88" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="34" t="str">
+      <c r="H88" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9018,24 +9345,24 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="19">
         <v>1.46</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="22" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G89" s="23" t="s">
+      <c r="F89" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="34" t="str">
+      <c r="H89" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9055,28 +9382,28 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="19">
         <v>0.24</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="20">
         <v>0.18</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F90" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G90" s="23" t="s">
+      <c r="F90" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H90" s="34" t="str">
+      <c r="H90" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9096,24 +9423,24 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="19">
         <v>0.33</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="22" t="s">
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F91" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91" s="23" t="s">
+      <c r="F91" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H91" s="34" t="str">
+      <c r="H91" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9133,24 +9460,24 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="19">
         <v>0.59</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="22" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F92" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G92" s="23" t="s">
+      <c r="F92" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H92" s="34" t="str">
+      <c r="H92" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9170,24 +9497,24 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="19">
         <v>0.12</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="22" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F93" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G93" s="23" t="s">
+      <c r="F93" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H93" s="34" t="str">
+      <c r="H93" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9207,28 +9534,28 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="19">
         <v>1.64</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="23" t="s">
+      <c r="F94" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H94" s="34" t="str">
+      <c r="H94" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9248,24 +9575,24 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="19">
         <v>0.91</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="22" t="s">
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F95" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="23" t="s">
+      <c r="F95" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H95" s="34" t="str">
+      <c r="H95" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9285,24 +9612,24 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="19">
         <v>0.45</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="22" t="s">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F96" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" s="23" t="s">
+      <c r="F96" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="34" t="str">
+      <c r="H96" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9322,28 +9649,28 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="28">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="19">
         <v>0.3</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F97" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" s="23" t="s">
+      <c r="F97" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="34" t="str">
+      <c r="H97" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9363,24 +9690,24 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="19">
         <v>0.51</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="22" t="s">
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F98" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G98" s="23" t="s">
+      <c r="F98" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H98" s="34" t="str">
+      <c r="H98" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9400,28 +9727,28 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="19">
         <v>0.36</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="20">
         <v>0.32</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="20">
         <v>0.4</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99" s="23" t="s">
+      <c r="F99" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H99" s="34" t="str">
+      <c r="H99" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9441,24 +9768,24 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <v>0.5</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="22" t="s">
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F100" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G100" s="23" t="s">
+      <c r="F100" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H100" s="34" t="str">
+      <c r="H100" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9478,24 +9805,24 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="19">
         <v>0.11</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="22" t="s">
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F101" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" s="23" t="s">
+      <c r="F101" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H101" s="34" t="str">
+      <c r="H101" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9515,28 +9842,28 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="19">
         <v>0.03</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <v>0.02</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="20">
         <v>0.05</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F102" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="23" t="s">
+      <c r="F102" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H102" s="34" t="str">
+      <c r="H102" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9556,28 +9883,28 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="20">
         <v>0.18</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="20">
         <v>0.38</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" s="23" t="s">
+      <c r="F103" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H103" s="34" t="str">
+      <c r="H103" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9597,28 +9924,28 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="19">
         <v>0.53</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="20">
         <v>0.52</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G104" s="23" t="s">
+      <c r="F104" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H104" s="34" t="str">
+      <c r="H104" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9638,24 +9965,24 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="20">
+      <c r="B105" s="19">
         <v>0.2</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="22" t="s">
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F105" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105" s="23" t="s">
+      <c r="F105" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H105" s="34" t="str">
+      <c r="H105" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9675,28 +10002,28 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="19">
         <v>0.12</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="20">
         <v>0.1</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="20">
         <v>0.15</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G106" s="23" t="s">
+      <c r="F106" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G106" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H106" s="34" t="str">
+      <c r="H106" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9716,24 +10043,24 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B107" s="20">
+      <c r="B107" s="19">
         <v>2.7</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="22" t="s">
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G107" s="23" t="s">
+      <c r="F107" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H107" s="34" t="str">
+      <c r="H107" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9753,28 +10080,28 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="19">
         <v>0.52</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="20">
         <v>0.49</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F108" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G108" s="23" t="s">
+      <c r="F108" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H108" s="34" t="str">
+      <c r="H108" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9794,24 +10121,24 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="20">
+      <c r="B109" s="19">
         <v>1.53</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="22" t="s">
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F109" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" s="23" t="s">
+      <c r="F109" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H109" s="34" t="str">
+      <c r="H109" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9831,24 +10158,24 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="20">
+      <c r="B110" s="19">
         <v>0.6</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="22" t="s">
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110" s="23" t="s">
+      <c r="F110" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H110" s="34" t="str">
+      <c r="H110" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9868,24 +10195,24 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="20">
+      <c r="B111" s="19">
         <v>0.49</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="22" t="s">
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" s="23" t="s">
+      <c r="F111" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G111" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H111" s="34" t="str">
+      <c r="H111" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9905,24 +10232,24 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="19">
         <v>0.4</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="22" t="s">
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F112" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="34" t="str">
+      <c r="H112" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9942,28 +10269,28 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B113" s="20">
+      <c r="B113" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="20">
         <v>0.26</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="20">
         <v>0.32</v>
       </c>
-      <c r="E113" s="22" t="s">
+      <c r="E113" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G113" s="23" t="s">
+      <c r="F113" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H113" s="34" t="str">
+      <c r="H113" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -9983,28 +10310,28 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B114" s="20">
+      <c r="B114" s="19">
         <v>0.05</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C114" s="19">
         <v>0.04</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="19">
         <v>0.05</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F114" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G114" s="25" t="s">
+      <c r="F114" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G114" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H114" s="34" t="str">
+      <c r="H114" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10024,24 +10351,24 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="19">
         <v>0.4</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="22" t="s">
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F115" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G115" s="23" t="s">
+      <c r="F115" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H115" s="34" t="str">
+      <c r="H115" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10061,28 +10388,28 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="19">
         <v>0.72</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="20">
         <v>0.62</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="20">
         <v>0.81</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F116" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G116" s="23" t="s">
+      <c r="F116" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H116" s="34" t="str">
+      <c r="H116" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10102,28 +10429,28 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="20">
+      <c r="B117" s="19">
         <v>0.45</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="20">
         <v>0.38</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D117" s="20">
         <v>0.52</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F117" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G117" s="23" t="s">
+      <c r="F117" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H117" s="34" t="str">
+      <c r="H117" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10143,24 +10470,24 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="19">
         <v>0.66</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="22" t="s">
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G118" s="23" t="s">
+      <c r="F118" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H118" s="34" t="str">
+      <c r="H118" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10180,24 +10507,24 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="19">
         <v>0.2</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="22" t="s">
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F119" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G119" s="23" t="s">
+      <c r="F119" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H119" s="34" t="str">
+      <c r="H119" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10217,28 +10544,28 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="19">
         <v>0.24</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="20">
         <v>0.23</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D120" s="20">
         <v>0.24</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F120" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G120" s="23" t="s">
+      <c r="F120" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H120" s="34" t="str">
+      <c r="H120" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10258,24 +10585,24 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B121" s="20">
+      <c r="B121" s="19">
         <v>0.59</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="22" t="s">
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F121" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G121" s="23" t="s">
+      <c r="F121" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H121" s="34" t="str">
+      <c r="H121" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10295,28 +10622,28 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <v>0.62</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D122" s="21">
+      <c r="D122" s="20">
         <v>0.66</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F122" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G122" s="23" t="s">
+      <c r="F122" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G122" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H122" s="34" t="str">
+      <c r="H122" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10336,33 +10663,33 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B123" s="20" t="str">
+      <c r="B123" s="19" t="str">
         <f t="shared" ref="B123:F123" si="10">" "</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C123" s="20" t="str">
+      <c r="C123" s="19" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D123" s="20" t="str">
+      <c r="D123" s="19" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E123" s="20" t="str">
+      <c r="E123" s="19" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F123" s="20" t="str">
+      <c r="F123" s="19" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H123" s="34" t="str">
+      <c r="H123" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10382,28 +10709,28 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="19">
         <v>0.13</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="20">
         <v>0.11</v>
       </c>
-      <c r="D124" s="21">
+      <c r="D124" s="20">
         <v>0.15</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G124" s="23" t="s">
+      <c r="F124" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G124" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H124" s="34" t="str">
+      <c r="H124" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10423,28 +10750,28 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="19">
         <v>0.3</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="20">
         <v>0.21</v>
       </c>
-      <c r="D125" s="21">
+      <c r="D125" s="20">
         <v>0.39</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F125" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G125" s="23" t="s">
+      <c r="F125" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H125" s="34" t="str">
+      <c r="H125" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10464,24 +10791,24 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B126" s="19">
         <v>0.1</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="22" t="s">
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F126" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G126" s="23" t="s">
+      <c r="F126" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H126" s="34" t="str">
+      <c r="H126" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10501,24 +10828,24 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="21">
+      <c r="B127" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="22" t="s">
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G127" s="23" t="s">
+      <c r="F127" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G127" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H127" s="34" t="str">
+      <c r="H127" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10538,28 +10865,28 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B128" s="21">
+      <c r="B128" s="20">
         <v>0.44</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="20">
         <v>0.4</v>
       </c>
-      <c r="D128" s="21">
+      <c r="D128" s="20">
         <v>0.48</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E128" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F128" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G128" s="23" t="s">
+      <c r="F128" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="34" t="str">
+      <c r="H128" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10579,28 +10906,28 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B129" s="21">
+      <c r="B129" s="20">
         <v>0.13</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="20">
         <v>0.1</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D129" s="20">
         <v>0.25</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F129" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G129" s="23" t="s">
+      <c r="F129" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G129" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H129" s="34" t="str">
+      <c r="H129" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10620,28 +10947,28 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B130" s="19">
         <v>0.23</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="20">
         <v>0.19</v>
       </c>
-      <c r="D130" s="21">
+      <c r="D130" s="20">
         <v>0.27</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F130" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G130" s="23" t="s">
+      <c r="F130" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="H130" s="34" t="str">
+      <c r="H130" s="33" t="str">
         <f t="shared" si="4"/>
         <v>'</v>
       </c>
@@ -10661,28 +10988,28 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="19">
         <v>0.23</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="20">
         <v>0.19</v>
       </c>
-      <c r="D131" s="21">
+      <c r="D131" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G131" s="23" t="s">
+      <c r="F131" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G131" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H131" s="34" t="str">
+      <c r="H131" s="33" t="str">
         <f t="shared" ref="H131:H137" si="11">"'"</f>
         <v>'</v>
       </c>
@@ -10702,24 +11029,24 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="19">
         <v>0.1</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="22" t="s">
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F132" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="23" t="s">
+      <c r="F132" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G132" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H132" s="34" t="str">
+      <c r="H132" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10739,28 +11066,28 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="19">
         <v>0.73</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="19">
         <v>0.72</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D133" s="19">
         <v>0.75</v>
       </c>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F133" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G133" s="25" t="s">
+      <c r="F133" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H133" s="34" t="str">
+      <c r="H133" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10780,28 +11107,28 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="19">
         <v>0.13</v>
       </c>
-      <c r="C134" s="20">
+      <c r="C134" s="19">
         <v>0.12</v>
       </c>
-      <c r="D134" s="20">
+      <c r="D134" s="19">
         <v>0.18</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E134" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F134" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G134" s="25" t="s">
+      <c r="F134" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G134" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H134" s="34" t="str">
+      <c r="H134" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10821,28 +11148,28 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="20">
+      <c r="B135" s="19">
         <v>1.71</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="19">
         <v>1.67</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D135" s="19">
         <v>1.75</v>
       </c>
-      <c r="E135" s="22" t="s">
+      <c r="E135" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F135" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G135" s="25" t="s">
+      <c r="F135" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G135" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="H135" s="34" t="str">
+      <c r="H135" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10862,28 +11189,28 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="19">
         <v>3.4</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="20">
         <v>3.1</v>
       </c>
-      <c r="D136" s="21">
+      <c r="D136" s="20">
         <v>3.7</v>
       </c>
-      <c r="E136" s="22" t="s">
+      <c r="E136" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F136" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G136" s="23" t="s">
+      <c r="F136" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G136" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H136" s="34" t="str">
+      <c r="H136" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10903,28 +11230,28 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C137" s="27">
+      <c r="C137" s="26">
         <v>0.7</v>
       </c>
-      <c r="D137" s="27">
+      <c r="D137" s="26">
         <v>1.5</v>
       </c>
-      <c r="E137" s="28" t="s">
+      <c r="E137" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H137" s="34" t="str">
+      <c r="H137" s="33" t="str">
         <f t="shared" si="11"/>
         <v>'</v>
       </c>
@@ -10944,7 +11271,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="15"/>
+      <c r="A138" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2-heroin/h.xlsx
+++ b/2-heroin/h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24220" yWindow="0" windowWidth="14100" windowHeight="21140" tabRatio="660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29460" windowHeight="21140" tabRatio="660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -2958,7 +2958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3043,6 +3043,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3190,7 +3200,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="144">
     <cellStyle name="Comma 2" xfId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3257,6 +3267,11 @@
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3322,6 +3337,11 @@
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
     <cellStyle name="Percent" xfId="83" builtinId="5"/>
@@ -3727,10 +3747,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:C16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3738,7 +3758,7 @@
     <col min="1" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -3749,7 +3769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" s="45">
         <v>1999</v>
       </c>
@@ -3759,16 +3779,8 @@
       <c r="C2" s="8">
         <v>1654</v>
       </c>
-      <c r="E2" s="8">
-        <f>-1</f>
-        <v>-1</v>
-      </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F16" si="0">-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="45">
         <v>2000</v>
       </c>
@@ -3778,16 +3790,8 @@
       <c r="C3" s="8">
         <v>1563</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:F16" si="1">-1</f>
-        <v>-1</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="45">
         <v>2001</v>
       </c>
@@ -3797,16 +3801,8 @@
       <c r="C4" s="8">
         <v>1466</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="45">
         <v>2002</v>
       </c>
@@ -3816,16 +3812,8 @@
       <c r="C5" s="8">
         <v>1730</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="45">
         <v>2003</v>
       </c>
@@ -3835,16 +3823,8 @@
       <c r="C6" s="8">
         <v>1722</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="45">
         <v>2004</v>
       </c>
@@ -3854,16 +3834,8 @@
       <c r="C7" s="8">
         <v>1537</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="45">
         <v>2005</v>
       </c>
@@ -3873,16 +3845,8 @@
       <c r="C8" s="8">
         <v>1620</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="45">
         <v>2006</v>
       </c>
@@ -3892,16 +3856,8 @@
       <c r="C9" s="8">
         <v>1744</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="45">
         <v>2007</v>
       </c>
@@ -3911,16 +3867,8 @@
       <c r="C10" s="8">
         <v>2000</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="45">
         <v>2008</v>
       </c>
@@ -3930,16 +3878,8 @@
       <c r="C11" s="8">
         <v>2490</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="45">
         <v>2009</v>
       </c>
@@ -3949,16 +3889,8 @@
       <c r="C12" s="8">
         <v>2701</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="45">
         <v>2010</v>
       </c>
@@ -3968,16 +3900,8 @@
       <c r="C13" s="8">
         <v>2452</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="45">
         <v>2011</v>
       </c>
@@ -3987,16 +3911,8 @@
       <c r="C14" s="8">
         <v>3519</v>
       </c>
-      <c r="E14" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="45">
         <v>2012</v>
       </c>
@@ -4006,16 +3922,8 @@
       <c r="C15" s="8">
         <v>4712</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="45">
         <v>2013</v>
       </c>
@@ -4024,14 +3932,6 @@
       </c>
       <c r="C16" s="8">
         <v>6525</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -5539,8 +5439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5561,10 +5461,10 @@
         <v>2000</v>
       </c>
       <c r="B2" s="43">
-        <v>170</v>
+        <v>170000</v>
       </c>
       <c r="C2" s="43">
-        <v>1400</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5572,10 +5472,10 @@
         <v>2001</v>
       </c>
       <c r="B3" s="43">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="C3" s="43">
-        <v>1400</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5583,10 +5483,10 @@
         <v>2002</v>
       </c>
       <c r="B4" s="43">
-        <v>210</v>
+        <v>210000</v>
       </c>
       <c r="C4" s="43">
-        <v>1300</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5594,10 +5494,10 @@
         <v>2003</v>
       </c>
       <c r="B5" s="43">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="C5" s="43">
-        <v>1300</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5605,10 +5505,10 @@
         <v>2004</v>
       </c>
       <c r="B6" s="43">
-        <v>120</v>
+        <v>120000</v>
       </c>
       <c r="C6" s="43">
-        <v>1300</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5616,10 +5516,10 @@
         <v>2005</v>
       </c>
       <c r="B7" s="43">
-        <v>180</v>
+        <v>180000</v>
       </c>
       <c r="C7" s="43">
-        <v>1200</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5627,10 +5527,10 @@
         <v>2006</v>
       </c>
       <c r="B8" s="43">
-        <v>380</v>
+        <v>380000</v>
       </c>
       <c r="C8" s="43">
-        <v>1200</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5638,10 +5538,10 @@
         <v>2007</v>
       </c>
       <c r="B9" s="43">
-        <v>150</v>
+        <v>150000</v>
       </c>
       <c r="C9" s="43">
-        <v>1200</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5649,10 +5549,10 @@
         <v>2008</v>
       </c>
       <c r="B10" s="43">
-        <v>240</v>
+        <v>240000</v>
       </c>
       <c r="C10" s="43">
-        <v>1300</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5660,10 +5560,10 @@
         <v>2009</v>
       </c>
       <c r="B11" s="43">
-        <v>340</v>
+        <v>340000</v>
       </c>
       <c r="C11" s="43">
-        <v>1500</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5671,10 +5571,10 @@
         <v>2010</v>
       </c>
       <c r="B12" s="43">
-        <v>330</v>
+        <v>330000</v>
       </c>
       <c r="C12" s="43">
-        <v>1500</v>
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>
